--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Object_price</t>
   </si>
@@ -163,34 +163,31 @@
     <t>zentralheizung</t>
   </si>
   <si>
+    <t>97074</t>
+  </si>
+  <si>
+    <t>97072</t>
+  </si>
+  <si>
     <t>97082</t>
   </si>
   <si>
-    <t>97074</t>
-  </si>
-  <si>
-    <t>97072</t>
-  </si>
-  <si>
     <t>97070</t>
   </si>
   <si>
     <t>97084</t>
   </si>
   <si>
+    <t>97246</t>
+  </si>
+  <si>
+    <t>97299</t>
+  </si>
+  <si>
+    <t>97218</t>
+  </si>
+  <si>
     <t>97273</t>
-  </si>
-  <si>
-    <t>97078</t>
-  </si>
-  <si>
-    <t>97299</t>
-  </si>
-  <si>
-    <t>97246</t>
-  </si>
-  <si>
-    <t>97218</t>
   </si>
   <si>
     <t>APARTMENT</t>
@@ -711,23 +708,26 @@
     </row>
     <row r="2" spans="1:49">
       <c r="A2">
-        <v>1165</v>
+        <v>532.1900000000001</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>56.02</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
       <c r="E2" t="s">
         <v>49</v>
       </c>
       <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -852,31 +852,28 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3">
-        <v>1181.21</v>
+        <v>610</v>
       </c>
       <c r="B3">
-        <v>70.87</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2019</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
       </c>
       <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -890,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -911,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -923,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1006,46 +1003,49 @@
     </row>
     <row r="4" spans="1:49">
       <c r="A4">
-        <v>610</v>
+        <v>950</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1911</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1152,31 +1152,34 @@
     </row>
     <row r="5" spans="1:49">
       <c r="A5">
-        <v>2175</v>
+        <v>474.53</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>49.95</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1203,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1266,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1287,45 +1290,42 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6">
-        <v>950</v>
+        <v>1165</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1911</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1430,42 +1430,42 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:49">
       <c r="A7">
-        <v>1183.37</v>
+        <v>1181.21</v>
       </c>
       <c r="B7">
-        <v>81.31999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="8" spans="1:49">
       <c r="A8">
-        <v>532.1900000000001</v>
+        <v>554.99</v>
       </c>
       <c r="B8">
-        <v>56.02</v>
+        <v>58.42</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1608,14 +1608,14 @@
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -1745,34 +1745,31 @@
     </row>
     <row r="9" spans="1:49">
       <c r="A9">
-        <v>474.53</v>
+        <v>2175</v>
       </c>
       <c r="B9">
-        <v>49.95</v>
+        <v>150</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2019</v>
+        <v>5.5</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1784,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1799,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1838,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1850,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1862,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1871,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -1883,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
         <v>0</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -1906,13 +1903,13 @@
         <v>2019</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2043,26 +2040,26 @@
     </row>
     <row r="11" spans="1:49">
       <c r="A11">
-        <v>554.99</v>
+        <v>1183.37</v>
       </c>
       <c r="B11">
-        <v>58.42</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2019</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2192,37 +2189,37 @@
     </row>
     <row r="12" spans="1:49">
       <c r="A12">
-        <v>1250</v>
+        <v>1720</v>
       </c>
       <c r="B12">
-        <v>101.95</v>
+        <v>123.36</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1930</v>
+        <v>2022</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2249,22 +2246,22 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2273,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2291,46 +2288,46 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
         <v>0</v>
@@ -2353,13 +2350,13 @@
         <v>1960</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2490,31 +2487,31 @@
     </row>
     <row r="14" spans="1:49">
       <c r="A14">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>101.95</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1984</v>
+        <v>1930</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2541,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2562,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2607,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2628,34 +2625,37 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15">
-        <v>900</v>
+        <v>1290</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
       </c>
       <c r="E15" t="s">
         <v>54</v>
       </c>
       <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <v>0</v>
@@ -2785,55 +2785,55 @@
     </row>
     <row r="16" spans="1:49">
       <c r="A16">
-        <v>924</v>
+        <v>715</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>82.2</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>1968</v>
+        <v>1900</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
       </c>
       <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2896,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16">
         <v>0</v>
@@ -2934,26 +2934,23 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17">
-        <v>1720</v>
+        <v>580</v>
       </c>
       <c r="B17">
-        <v>123.36</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -2961,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2976,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2988,25 +2985,25 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3015,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3033,43 +3030,43 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>1</v>
@@ -3078,48 +3075,48 @@
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:49">
       <c r="A18">
-        <v>715</v>
+        <v>2880</v>
       </c>
       <c r="B18">
-        <v>82.2</v>
+        <v>195</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>1900</v>
+        <v>2023</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3131,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -3155,34 +3152,34 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -3203,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -3215,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -3232,26 +3229,26 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19">
-        <v>1290</v>
+        <v>1100</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>2022</v>
+        <v>1984</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -3259,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3283,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -3301,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>1</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -3340,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -3364,16 +3361,16 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19">
         <v>0</v>
@@ -3381,26 +3378,23 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20">
-        <v>2880</v>
+        <v>900</v>
       </c>
       <c r="B20">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>2023</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -3411,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3426,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3453,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -3477,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -3501,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
         <v>0</v>

--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Object_price</t>
   </si>
@@ -100,7 +100,7 @@
     <t>gas</t>
   </si>
   <si>
-    <t>haustiere_erlaubt</t>
+    <t>gepflegt</t>
   </si>
   <si>
     <t>kelleranteil</t>
@@ -148,6 +148,12 @@
     <t>stellplatz</t>
   </si>
   <si>
+    <t>teilweise_m\u00f6bliert</t>
+  </si>
+  <si>
+    <t>teppich</t>
+  </si>
+  <si>
     <t>terrasse</t>
   </si>
   <si>
@@ -166,15 +172,18 @@
     <t>97074</t>
   </si>
   <si>
+    <t>97070</t>
+  </si>
+  <si>
+    <t>97082</t>
+  </si>
+  <si>
+    <t>97218</t>
+  </si>
+  <si>
     <t>97072</t>
   </si>
   <si>
-    <t>97082</t>
-  </si>
-  <si>
-    <t>97070</t>
-  </si>
-  <si>
     <t>97084</t>
   </si>
   <si>
@@ -182,9 +191,6 @@
   </si>
   <si>
     <t>97299</t>
-  </si>
-  <si>
-    <t>97218</t>
   </si>
   <si>
     <t>97273</t>
@@ -551,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW20"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,28 +711,34 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:51">
       <c r="A2">
-        <v>532.1900000000001</v>
+        <v>1183.37</v>
       </c>
       <c r="B2">
-        <v>56.02</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -750,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -837,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -854,25 +866,34 @@
       <c r="AW2">
         <v>0</v>
       </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:51">
       <c r="A3">
-        <v>610</v>
+        <v>554.99</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>58.42</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -887,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -908,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -920,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -956,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -965,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1000,37 +1021,43 @@
       <c r="AW3">
         <v>0</v>
       </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:51">
       <c r="A4">
-        <v>950</v>
+        <v>532.1900000000001</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>56.02</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1911</v>
+        <v>2019</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1045,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1054,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1084,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1114,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1141,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1149,37 +1176,40 @@
       <c r="AW4">
         <v>0</v>
       </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:51">
       <c r="A5">
-        <v>474.53</v>
+        <v>2175</v>
       </c>
       <c r="B5">
-        <v>49.95</v>
+        <v>150</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2019</v>
+        <v>5.5</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1191,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1206,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1245,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1257,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1269,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1278,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1296,27 +1326,36 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:51">
       <c r="A6">
-        <v>1165</v>
+        <v>1181.21</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>70.87</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1376,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1409,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1427,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -1442,30 +1481,33 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:51">
       <c r="A7">
-        <v>1181.21</v>
+        <v>1165</v>
       </c>
       <c r="B7">
-        <v>70.87</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>2019</v>
-      </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1525,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1558,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1576,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -1585,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -1593,13 +1635,19 @@
       <c r="AW7">
         <v>0</v>
       </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:51">
       <c r="A8">
-        <v>554.99</v>
+        <v>566.96</v>
       </c>
       <c r="B8">
-        <v>58.42</v>
+        <v>59.68</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1608,13 +1656,13 @@
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1707,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1742,34 +1790,43 @@
       <c r="AW8">
         <v>0</v>
       </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:51">
       <c r="A9">
-        <v>2175</v>
+        <v>750</v>
       </c>
       <c r="B9">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>1960</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1781,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1796,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1823,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1847,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1868,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -1880,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -1888,28 +1945,34 @@
       <c r="AW9">
         <v>1</v>
       </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:51">
       <c r="A10">
-        <v>566.96</v>
+        <v>2880</v>
       </c>
       <c r="B10">
-        <v>59.68</v>
+        <v>195</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1918,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1945,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1963,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1978,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1987,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2011,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2020,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -2029,36 +2092,39 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:51">
       <c r="A11">
-        <v>1183.37</v>
+        <v>610</v>
       </c>
       <c r="B11">
-        <v>81.31999999999999</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2019</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2073,16 +2139,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2094,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2106,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2142,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2151,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2186,8 +2252,14 @@
       <c r="AW11">
         <v>0</v>
       </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:51">
       <c r="A12">
         <v>1720</v>
       </c>
@@ -2201,13 +2273,13 @@
         <v>2022</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2321,48 +2393,54 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>1</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12">
         <v>1</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:51">
       <c r="A13">
-        <v>750</v>
+        <v>474.53</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>49.95</v>
       </c>
       <c r="C13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1960</v>
+        <v>2019</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2380,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2419,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2449,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2476,48 +2554,54 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:51">
       <c r="A14">
-        <v>1250</v>
+        <v>1290</v>
       </c>
       <c r="B14">
-        <v>101.95</v>
+        <v>93</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D14">
-        <v>1930</v>
+        <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2544,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2556,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2571,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2586,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2595,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -2625,36 +2709,42 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:51">
       <c r="A15">
-        <v>1290</v>
+        <v>1100</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>2022</v>
+        <v>1984</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2663,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2687,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -2705,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2735,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2744,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -2768,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -2780,620 +2870,650 @@
         <v>0</v>
       </c>
       <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:51">
       <c r="A16">
-        <v>715</v>
+        <v>950</v>
       </c>
       <c r="B16">
-        <v>82.2</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>1900</v>
+        <v>1911</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
       </c>
       <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
+      <c r="A17">
+        <v>715</v>
+      </c>
+      <c r="B17">
+        <v>82.2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1900</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18">
+        <v>153.3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>1</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
-      <c r="A17">
+    <row r="20" spans="1:51">
+      <c r="A20">
         <v>580</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
-      <c r="A18">
-        <v>2880</v>
-      </c>
-      <c r="B18">
-        <v>195</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>2023</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>1</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>1</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
-      <c r="A19">
-        <v>1100</v>
-      </c>
-      <c r="B19">
-        <v>103</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>1984</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
-      <c r="A20">
-        <v>900</v>
-      </c>
-      <c r="B20">
-        <v>90</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3402,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3420,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3429,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3450,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3462,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3507,18 +3627,24 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20">
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20">
         <v>0</v>
       </c>
       <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
         <v>0</v>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -157,19 +157,19 @@
     <t>zentralheizung</t>
   </si>
   <si>
+    <t>97078</t>
+  </si>
+  <si>
     <t>97072</t>
   </si>
   <si>
+    <t>97082</t>
+  </si>
+  <si>
+    <t>97084</t>
+  </si>
+  <si>
     <t>97074</t>
-  </si>
-  <si>
-    <t>97082</t>
-  </si>
-  <si>
-    <t>97078</t>
-  </si>
-  <si>
-    <t>97084</t>
   </si>
   <si>
     <t>97080</t>
@@ -693,13 +693,13 @@
         <v>700</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1955</v>
+        <v>2019</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -768,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -828,21 +828,21 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:47">
       <c r="A3">
-        <v>1483.93</v>
+        <v>700</v>
       </c>
       <c r="B3">
-        <v>102.34</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2023</v>
+        <v>1955</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -854,10 +854,10 @@
         <v>55</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -890,22 +890,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -965,30 +965,27 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="A4">
-        <v>3601.44</v>
+        <v>580</v>
       </c>
       <c r="B4">
-        <v>225.09</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -997,10 +994,10 @@
         <v>55</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1012,25 +1009,25 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1039,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1060,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1087,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1119,19 +1116,19 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5">
-        <v>415</v>
+        <v>1125</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1170,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1182,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1212,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1254,24 +1251,21 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:47">
       <c r="A6">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2019</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1316,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1367,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1379,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1391,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -1405,19 +1399,19 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7">
-        <v>1125</v>
+        <v>1483.93</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>102.34</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1957</v>
+        <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1426,7 +1420,7 @@
         <v>55</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1438,25 +1432,25 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1468,16 +1462,16 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1489,43 +1483,43 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -1537,27 +1531,27 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:47">
       <c r="A8">
-        <v>900</v>
+        <v>430</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1599,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1623,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1632,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1662,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1683,24 +1677,24 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:47">
       <c r="A9">
-        <v>1797.71</v>
+        <v>415</v>
       </c>
       <c r="B9">
-        <v>123.98</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2023</v>
+        <v>1950</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1709,10 +1703,10 @@
         <v>55</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1727,22 +1721,22 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1757,40 +1751,40 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1799,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1823,24 +1817,27 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:47">
       <c r="A10">
-        <v>430</v>
+        <v>1797.71</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>123.98</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1849,10 +1846,10 @@
         <v>55</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1864,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1891,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1912,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1939,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -1963,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -1971,16 +1968,19 @@
     </row>
     <row r="11" spans="1:47">
       <c r="A11">
-        <v>580</v>
+        <v>3601.44</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>225.09</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2023</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1989,10 +1989,10 @@
         <v>55</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2031,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2111,19 +2111,19 @@
     </row>
     <row r="12" spans="1:47">
       <c r="A12">
-        <v>3163.32</v>
+        <v>950</v>
       </c>
       <c r="B12">
-        <v>218.16</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="D12">
-        <v>2023</v>
+        <v>1990</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -2132,7 +2132,7 @@
         <v>55</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2153,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2195,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -2240,33 +2240,30 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:47">
       <c r="A13">
-        <v>950</v>
+        <v>1095</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
-      </c>
-      <c r="D13">
-        <v>1990</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -2293,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2365,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2392,21 +2389,24 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47">
       <c r="A14">
-        <v>1095</v>
+        <v>649</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2505,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2532,24 +2532,24 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:47">
       <c r="A15">
-        <v>649</v>
+        <v>3163.32</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>218.16</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -2558,7 +2558,7 @@
         <v>55</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2579,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2621,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -2666,30 +2666,33 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47">
       <c r="A16">
-        <v>815</v>
+        <v>3030.93</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>178.29</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
@@ -2698,16 +2701,16 @@
         <v>55</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2719,58 +2722,58 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2779,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -2797,42 +2800,39 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16">
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:47">
       <c r="A17">
-        <v>3030.93</v>
+        <v>815</v>
       </c>
       <c r="B17">
-        <v>178.29</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>2023</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -2841,16 +2841,16 @@
         <v>55</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2862,58 +2862,58 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -2940,25 +2940,25 @@
         <v>1</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:47">
@@ -2975,7 +2975,7 @@
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>

--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>Object_price</t>
   </si>
@@ -40,10 +40,19 @@
     <t>abstellraum</t>
   </si>
   <si>
+    <t>altbau_(bis_1945)</t>
+  </si>
+  <si>
     <t>balkon</t>
   </si>
   <si>
     <t>barriefrei</t>
+  </si>
+  <si>
+    <t>carport</t>
+  </si>
+  <si>
+    <t>dach_ausgebaut</t>
   </si>
   <si>
     <t>dachgeschoss</t>
@@ -94,10 +103,16 @@
     <t>garage</t>
   </si>
   <si>
+    <t>gartennutzung</t>
+  </si>
+  <si>
     <t>gas</t>
   </si>
   <si>
     <t>gepflegt</t>
+  </si>
+  <si>
+    <t>haustiere_erlaubt</t>
   </si>
   <si>
     <t>kable_sat_tv</t>
@@ -121,10 +136,16 @@
     <t>luftwp</t>
   </si>
   <si>
+    <t>massivhaus</t>
+  </si>
+  <si>
     <t>moebliert</t>
   </si>
   <si>
     <t>neubau</t>
+  </si>
+  <si>
+    <t>offene_k\u00fcche</t>
   </si>
   <si>
     <t>parkett</t>
@@ -139,7 +160,22 @@
     <t>reinigung</t>
   </si>
   <si>
+    <t>renoviert</t>
+  </si>
+  <si>
+    <t>rollstuhlgerecht</t>
+  </si>
+  <si>
     <t>souterrain</t>
+  </si>
+  <si>
+    <t>speisekammer</t>
+  </si>
+  <si>
+    <t>stellplatz</t>
+  </si>
+  <si>
+    <t>teilweise_m\u00f6bliert</t>
   </si>
   <si>
     <t>teppich</t>
@@ -154,28 +190,34 @@
     <t>wanne</t>
   </si>
   <si>
+    <t>wg_geeignet</t>
+  </si>
+  <si>
     <t>zentralheizung</t>
+  </si>
+  <si>
+    <t>97072</t>
+  </si>
+  <si>
+    <t>97074</t>
+  </si>
+  <si>
+    <t>97082</t>
   </si>
   <si>
     <t>97078</t>
   </si>
   <si>
-    <t>97072</t>
-  </si>
-  <si>
-    <t>97082</t>
-  </si>
-  <si>
-    <t>97084</t>
-  </si>
-  <si>
-    <t>97074</t>
+    <t>97070</t>
   </si>
   <si>
     <t>97080</t>
   </si>
   <si>
-    <t>97070</t>
+    <t>97076</t>
+  </si>
+  <si>
+    <t>97084</t>
   </si>
   <si>
     <t>APARTMENT</t>
@@ -539,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU18"/>
+  <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,28 +729,67 @@
       <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:60">
       <c r="A2">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -726,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -753,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -762,28 +843,28 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -795,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -810,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -819,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -828,39 +909,78 @@
         <v>0</v>
       </c>
       <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:60">
       <c r="A3">
-        <v>700</v>
+        <v>1245</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>1955</v>
+        <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -881,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -890,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -899,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -914,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -935,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -971,27 +1091,69 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:60">
       <c r="A4">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>9.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1972</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1009,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1036,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1045,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1063,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1081,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1093,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1108,33 +1270,72 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:60">
       <c r="A5">
-        <v>1125</v>
+        <v>1180</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1957</v>
+        <v>1994</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1149,25 +1350,25 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1191,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1203,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1218,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1248,33 +1449,75 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:60">
       <c r="A6">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>1974</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1283,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1310,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1319,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1334,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1358,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1373,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1394,33 +1637,72 @@
         <v>0</v>
       </c>
       <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:60">
       <c r="A7">
-        <v>1483.93</v>
+        <v>300</v>
       </c>
       <c r="B7">
-        <v>102.34</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2023</v>
+        <v>1972</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1432,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1441,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1465,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1474,22 +1756,22 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1498,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1510,13 +1792,13 @@
         <v>1</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1531,33 +1813,75 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
       <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:60">
       <c r="A8">
-        <v>430</v>
+        <v>1149</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1566,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1587,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1602,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1617,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1641,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1665,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -1677,30 +2001,69 @@
         <v>0</v>
       </c>
       <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:60">
       <c r="A9">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1950</v>
+        <v>1972</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1721,22 +2084,22 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1748,22 +2111,22 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1772,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1790,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1802,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1820,36 +2183,75 @@
         <v>0</v>
       </c>
       <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:60">
       <c r="A10">
-        <v>1797.71</v>
+        <v>1036.9</v>
       </c>
       <c r="B10">
-        <v>123.98</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1861,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1870,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1888,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1909,22 +2311,22 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -1933,66 +2335,102 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:60">
       <c r="A11">
-        <v>3601.44</v>
+        <v>265</v>
       </c>
       <c r="B11">
-        <v>225.09</v>
+        <v>11.7</v>
       </c>
       <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>2023</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2004,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2031,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2052,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2070,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2079,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2103,33 +2541,72 @@
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>0</v>
       </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:60">
       <c r="A12">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2147,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2156,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2183,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2213,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2249,27 +2726,66 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:60">
       <c r="A13">
-        <v>1095</v>
+        <v>635</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>47.1</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2287,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2317,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2344,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2356,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -2391,716 +2907,4578 @@
       <c r="AU13">
         <v>0</v>
       </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:60">
       <c r="A14">
+        <v>950</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1984</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
+      <c r="A15">
+        <v>1080</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1985</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60">
+      <c r="A16">
+        <v>1470</v>
+      </c>
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2003</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>55.5</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60">
+      <c r="A18">
+        <v>750</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+      <c r="D18">
+        <v>1960</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60">
+      <c r="A19">
+        <v>850</v>
+      </c>
+      <c r="B19">
+        <v>72.94</v>
+      </c>
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+      <c r="D19">
+        <v>1993</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60">
+      <c r="A20">
+        <v>700</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1955</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60">
+      <c r="A21">
+        <v>430</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60">
+      <c r="A22">
+        <v>700</v>
+      </c>
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60">
+      <c r="A23">
+        <v>1125</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1957</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60">
+      <c r="A24">
+        <v>1483.93</v>
+      </c>
+      <c r="B24">
+        <v>102.34</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60">
+      <c r="A25">
+        <v>580</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60">
+      <c r="A26">
+        <v>3601.44</v>
+      </c>
+      <c r="B26">
+        <v>225.09</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60">
+      <c r="A27">
+        <v>3163.32</v>
+      </c>
+      <c r="B27">
+        <v>218.16</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60">
+      <c r="A28">
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60">
+      <c r="A29">
         <v>649</v>
       </c>
-      <c r="B14">
+      <c r="B29">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>2015</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
-      <c r="A15">
-        <v>3163.32</v>
-      </c>
-      <c r="B15">
-        <v>218.16</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
+    <row r="30" spans="1:60">
+      <c r="A30">
+        <v>3030.93</v>
+      </c>
+      <c r="B30">
+        <v>178.29</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
         <v>2023</v>
       </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AU15">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>1</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>1</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
-      <c r="A16">
-        <v>3030.93</v>
-      </c>
-      <c r="B16">
-        <v>178.29</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
+    <row r="31" spans="1:60">
+      <c r="A31">
+        <v>415</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1950</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60">
+      <c r="A32">
+        <v>1797.71</v>
+      </c>
+      <c r="B32">
+        <v>123.98</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
         <v>2023</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>1</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>1</v>
-      </c>
-      <c r="AU16">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>1</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
-      <c r="A17">
+    <row r="33" spans="1:60">
+      <c r="A33">
         <v>815</v>
       </c>
-      <c r="B17">
+      <c r="B33">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C33">
         <v>1.5</v>
       </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>1</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
-      <c r="A18">
+    <row r="34" spans="1:60">
+      <c r="A34">
+        <v>950</v>
+      </c>
+      <c r="B34">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>1990</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60">
+      <c r="A35">
+        <v>1720</v>
+      </c>
+      <c r="B35">
+        <v>123.36</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>1</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>1</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60">
+      <c r="A36">
+        <v>1095</v>
+      </c>
+      <c r="B36">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60">
+      <c r="A37">
         <v>649</v>
       </c>
-      <c r="B18">
+      <c r="B37">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>2015</v>
       </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>1</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60">
+      <c r="A38">
+        <v>450</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1975</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
         <v>1</v>
       </c>
     </row>

--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -157,16 +157,19 @@
     <t>zentralheizung</t>
   </si>
   <si>
+    <t>97070</t>
+  </si>
+  <si>
+    <t>97074</t>
+  </si>
+  <si>
     <t>97072</t>
   </si>
   <si>
-    <t>97074</t>
-  </si>
-  <si>
     <t>97082</t>
   </si>
   <si>
-    <t>97070</t>
+    <t>97218</t>
   </si>
   <si>
     <t>97084</t>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>97246</t>
-  </si>
-  <si>
-    <t>97218</t>
   </si>
   <si>
     <t>APARTMENT</t>
@@ -693,13 +693,13 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2">
-        <v>610</v>
+        <v>2175</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -711,19 +711,19 @@
         <v>56</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -741,19 +741,19 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -783,31 +783,31 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -822,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:47">
       <c r="A3">
-        <v>566.96</v>
+        <v>474.53</v>
       </c>
       <c r="B3">
-        <v>59.68</v>
+        <v>49.95</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -976,19 +976,16 @@
     </row>
     <row r="4" spans="1:47">
       <c r="A4">
-        <v>554.99</v>
+        <v>610</v>
       </c>
       <c r="B4">
-        <v>58.42</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2019</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1009,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1024,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1119,10 +1116,10 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5">
-        <v>1181.21</v>
+        <v>532.1900000000001</v>
       </c>
       <c r="B5">
-        <v>70.87</v>
+        <v>56.02</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1158,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1262,13 +1259,13 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6">
-        <v>1183.37</v>
+        <v>566.96</v>
       </c>
       <c r="B6">
-        <v>81.31999999999999</v>
+        <v>59.68</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2019</v>
@@ -1301,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1364,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1405,19 +1402,19 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7">
-        <v>950</v>
+        <v>554.99</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>58.42</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1911</v>
+        <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1429,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1444,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1480,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1507,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1522,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -1548,19 +1545,19 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8">
-        <v>532.1900000000001</v>
+        <v>950</v>
       </c>
       <c r="B8">
-        <v>56.02</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2019</v>
+        <v>1911</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1572,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1587,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1623,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1680,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -1691,16 +1688,19 @@
     </row>
     <row r="9" spans="1:47">
       <c r="A9">
-        <v>1165</v>
+        <v>1181.21</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>70.87</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -1826,21 +1826,24 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:47">
       <c r="A10">
-        <v>2175</v>
+        <v>1183.37</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1849,13 +1852,13 @@
         <v>56</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1864,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1876,22 +1879,22 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1912,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1936,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -1960,30 +1963,30 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:47">
       <c r="A11">
-        <v>474.53</v>
+        <v>750</v>
       </c>
       <c r="B11">
-        <v>49.95</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>2019</v>
+        <v>1960</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1995,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2010,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2046,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2073,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2103,30 +2106,27 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:47">
       <c r="A12">
-        <v>750</v>
+        <v>1165</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
-      </c>
-      <c r="D12">
-        <v>1960</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2240,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="13" spans="1:47">
       <c r="A13">
-        <v>1720</v>
+        <v>2880</v>
       </c>
       <c r="B13">
-        <v>123.36</v>
+        <v>195</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2311,28 +2311,28 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2344,25 +2344,25 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
         <v>1</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>1</v>
@@ -2395,21 +2395,24 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47">
       <c r="A14">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1984</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -2424,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2436,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2463,22 +2466,22 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2505,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2532,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -2540,14 +2543,17 @@
     </row>
     <row r="15" spans="1:47">
       <c r="A15">
-        <v>900</v>
+        <v>1720</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>123.36</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
       <c r="E15" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2576,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2591,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2627,34 +2633,34 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -2666,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
         <v>1</v>
@@ -2675,24 +2681,21 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:47">
       <c r="A16">
-        <v>1290</v>
+        <v>1100</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
@@ -2710,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2728,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2743,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2761,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2770,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2779,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -2806,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -2823,19 +2826,19 @@
     </row>
     <row r="17" spans="1:47">
       <c r="A17">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>153.3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
@@ -2850,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2868,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -2877,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2895,19 +2898,19 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2916,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2940,45 +2943,42 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17">
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:47">
       <c r="A18">
-        <v>2880</v>
+        <v>580</v>
       </c>
       <c r="B18">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -2993,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3032,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3047,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -3109,19 +3109,16 @@
     </row>
     <row r="19" spans="1:47">
       <c r="A19">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="B19">
-        <v>153.3</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>1998</v>
-      </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -3136,22 +3133,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3163,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -3175,25 +3172,25 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -3202,19 +3199,19 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -3226,19 +3223,19 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <v>1</v>
@@ -3247,21 +3244,24 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:47">
       <c r="A20">
-        <v>1100</v>
+        <v>1290</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3.5</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3312,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>

--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -169,13 +169,13 @@
     <t>97082</t>
   </si>
   <si>
+    <t>97084</t>
+  </si>
+  <si>
+    <t>97273</t>
+  </si>
+  <si>
     <t>97218</t>
-  </si>
-  <si>
-    <t>97084</t>
-  </si>
-  <si>
-    <t>97273</t>
   </si>
   <si>
     <t>97246</t>
@@ -833,10 +833,10 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3">
-        <v>474.53</v>
+        <v>566.96</v>
       </c>
       <c r="B3">
-        <v>49.95</v>
+        <v>59.68</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -976,13 +976,16 @@
     </row>
     <row r="4" spans="1:47">
       <c r="A4">
-        <v>610</v>
+        <v>950</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1911</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
@@ -997,28 +1000,28 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1048,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1066,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1105,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1116,13 +1119,13 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5">
-        <v>532.1900000000001</v>
+        <v>1183.37</v>
       </c>
       <c r="B5">
-        <v>56.02</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2019</v>
@@ -1155,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1259,10 +1262,10 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6">
-        <v>566.96</v>
+        <v>474.53</v>
       </c>
       <c r="B6">
-        <v>59.68</v>
+        <v>49.95</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1361,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1402,19 +1405,16 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7">
-        <v>554.99</v>
+        <v>610</v>
       </c>
       <c r="B7">
-        <v>58.42</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2019</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1545,19 +1545,16 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8">
-        <v>950</v>
+        <v>1165</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1911</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1569,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1590,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1617,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1626,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1653,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1671,27 +1668,27 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8">
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:47">
       <c r="A9">
-        <v>1181.21</v>
+        <v>532.1900000000001</v>
       </c>
       <c r="B9">
-        <v>70.87</v>
+        <v>56.02</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1727,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1805,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1831,19 +1828,19 @@
     </row>
     <row r="10" spans="1:47">
       <c r="A10">
-        <v>1183.37</v>
+        <v>750</v>
       </c>
       <c r="B10">
-        <v>81.31999999999999</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>2019</v>
+        <v>1960</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1855,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1906,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1933,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1948,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -1963,30 +1960,30 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:47">
       <c r="A11">
-        <v>750</v>
+        <v>1181.21</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>70.87</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1960</v>
+        <v>2019</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2049,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2076,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2091,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2106,27 +2103,30 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:47">
       <c r="A12">
-        <v>1165</v>
+        <v>1100</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1984</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2240,36 +2240,36 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:47">
       <c r="A13">
-        <v>2880</v>
+        <v>554.99</v>
       </c>
       <c r="B13">
-        <v>195</v>
+        <v>58.42</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2338,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="14" spans="1:47">
       <c r="A14">
-        <v>1100</v>
+        <v>1720</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>123.36</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>1984</v>
+        <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -2490,34 +2490,34 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2526,34 +2526,31 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14">
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:47">
       <c r="A15">
-        <v>1720</v>
+        <v>900</v>
       </c>
       <c r="B15">
-        <v>123.36</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15" t="s">
         <v>52</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2582,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2597,28 +2594,28 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2633,34 +2630,34 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -2672,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>1</v>
@@ -2681,21 +2678,24 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47">
       <c r="A16">
-        <v>1100</v>
+        <v>2880</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
@@ -2710,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2749,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -2826,16 +2826,13 @@
     </row>
     <row r="17" spans="1:47">
       <c r="A17">
-        <v>1700</v>
+        <v>580</v>
       </c>
       <c r="B17">
-        <v>153.3</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>1998</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -2859,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2874,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2892,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2901,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2919,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -2943,19 +2940,19 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <v>1</v>
@@ -2964,18 +2961,18 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:47">
       <c r="A18">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -3098,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -3109,16 +3106,19 @@
     </row>
     <row r="19" spans="1:47">
       <c r="A19">
-        <v>900</v>
+        <v>1290</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3169,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -3249,19 +3249,19 @@
     </row>
     <row r="20" spans="1:47">
       <c r="A20">
-        <v>1290</v>
+        <v>1700</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>153.3</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3303,58 +3303,58 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -3366,28 +3366,28 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
+++ b/immowelt_price_guide/data/retrain_train_data_preprocessed.xlsx
@@ -160,22 +160,22 @@
     <t>97070</t>
   </si>
   <si>
+    <t>97082</t>
+  </si>
+  <si>
+    <t>97072</t>
+  </si>
+  <si>
     <t>97074</t>
   </si>
   <si>
-    <t>97072</t>
-  </si>
-  <si>
-    <t>97082</t>
-  </si>
-  <si>
     <t>97084</t>
   </si>
   <si>
+    <t>97218</t>
+  </si>
+  <si>
     <t>97273</t>
-  </si>
-  <si>
-    <t>97218</t>
   </si>
   <si>
     <t>97246</t>
@@ -833,17 +833,14 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3">
-        <v>566.96</v>
+        <v>1165</v>
       </c>
       <c r="B3">
-        <v>59.68</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>2019</v>
-      </c>
       <c r="E3" t="s">
         <v>48</v>
       </c>
@@ -872,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -905,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -971,21 +968,18 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="A4">
-        <v>950</v>
+        <v>610</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1911</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
@@ -1000,28 +994,28 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1036,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1051,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1069,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1093,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1108,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1119,19 +1113,19 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5">
-        <v>1183.37</v>
+        <v>554.99</v>
       </c>
       <c r="B5">
-        <v>81.31999999999999</v>
+        <v>58.42</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1158,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1262,10 +1256,10 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6">
-        <v>474.53</v>
+        <v>532.1900000000001</v>
       </c>
       <c r="B6">
-        <v>49.95</v>
+        <v>56.02</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1274,7 +1268,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1405,16 +1399,19 @@
     </row>
     <row r="7" spans="1:47">
       <c r="A7">
-        <v>610</v>
+        <v>1183.37</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1435,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1450,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1495,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1504,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1545,16 +1542,19 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8">
-        <v>1165</v>
+        <v>950</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1911</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1668,27 +1668,27 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:47">
       <c r="A9">
-        <v>532.1900000000001</v>
+        <v>474.53</v>
       </c>
       <c r="B9">
-        <v>56.02</v>
+        <v>49.95</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1697,7 +1697,7 @@
         <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="10" spans="1:47">
       <c r="A10">
-        <v>750</v>
+        <v>1181.21</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>70.87</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1960</v>
+        <v>2019</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1930,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -1960,21 +1960,21 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:47">
       <c r="A11">
-        <v>1181.21</v>
+        <v>566.96</v>
       </c>
       <c r="B11">
-        <v>70.87</v>
+        <v>59.68</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1983,7 +1983,7 @@
         <v>2019</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="12" spans="1:47">
       <c r="A12">
-        <v>1100</v>
+        <v>1720</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>123.36</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1984</v>
+        <v>2022</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2204,34 +2204,34 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2240,36 +2240,36 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:47">
       <c r="A13">
-        <v>554.99</v>
+        <v>1100</v>
       </c>
       <c r="B13">
-        <v>58.42</v>
+        <v>103</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2359,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="14" spans="1:47">
       <c r="A14">
-        <v>1720</v>
+        <v>750</v>
       </c>
       <c r="B14">
-        <v>123.36</v>
+        <v>65</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D14">
-        <v>2022</v>
+        <v>1960</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2448,25 +2448,25 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2490,34 +2490,34 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>1</v>
@@ -2543,13 +2543,16 @@
     </row>
     <row r="15" spans="1:47">
       <c r="A15">
-        <v>900</v>
+        <v>2880</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>
@@ -2570,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2582,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>1</v>
@@ -2627,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2683,19 +2686,16 @@
     </row>
     <row r="16" spans="1:47">
       <c r="A16">
-        <v>2880</v>
+        <v>580</v>
       </c>
       <c r="B16">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
@@ -2710,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2749,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -2826,16 +2826,16 @@
     </row>
     <row r="17" spans="1:47">
       <c r="A17">
-        <v>580</v>
+        <v>900</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2892,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
